--- a/data/trans_camb/P24_8_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_8_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,01</t>
+          <t>-2,93; 3,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 0,27</t>
+          <t>-5,48; 0,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,01</t>
+          <t>-4,07; 1,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,06</t>
+          <t>-4,26; 2,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,86</t>
+          <t>3,13; 9,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 1,34</t>
+          <t>-1,57; 5,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 4,93</t>
+          <t>-4,86; 1,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,47</t>
+          <t>-4,73; 1,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,79</t>
+          <t>-1,37; 5,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,11</t>
+          <t>-2,18; 5,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,9</t>
+          <t>2,56; 10,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,44</t>
+          <t>-0,09; 7,93</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 2,1</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 0,26</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 2,76</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 2,85</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 8,91</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 5,44</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-37,5%</t>
+          <t>-37,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>-14,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,48%</t>
+          <t>135,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>-14,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,59%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-21,26%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>26,08%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-5,14%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-20,8%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>69,01%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 103,07</t>
+          <t>-40,96; 96,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 10,92</t>
+          <t>-67,37; 6,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 48,49</t>
+          <t>-52,17; 42,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,46; 173,63</t>
+          <t>-57,14; 57,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 17,5</t>
+          <t>43,52; 289,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 14,45</t>
+          <t>-14,13; 57,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 47,85</t>
+          <t>-36,19; 18,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 74,73</t>
+          <t>-35,67; 13,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 23,48</t>
+          <t>-10,3; 50,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 2,13</t>
+          <t>-16,23; 55,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 38,04</t>
+          <t>16,75; 97,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 87,09</t>
+          <t>-0,79; 56,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-28,19; 26,63</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-37,7; 3,73</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-15,45; 36,77</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-21,53; 37,24</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>33,79; 110,07</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 46,94</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,16</t>
+          <t>-2,96; 1,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,02</t>
+          <t>-0,83; 4,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,66</t>
+          <t>1,23; 8,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 7,75</t>
+          <t>0,45; 6,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 2,46</t>
+          <t>-2,44; 7,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 2,18</t>
+          <t>-3,26; 7,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,41</t>
+          <t>-4,68; 3,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 10,63</t>
+          <t>-4,68; 2,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,38</t>
+          <t>-5,56; 1,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,08</t>
+          <t>-0,14; 8,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,54</t>
+          <t>-3,81; 8,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 6,98</t>
+          <t>-6,25; 9,33</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 1,52</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 2,31</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 3,64</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 6,6</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 5,68</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 7,28</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,09%</t>
+          <t>-18,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>40,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>104,84%</t>
+          <t>106,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,81%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,16%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,48%</t>
+          <t>-6,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>-10,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,1%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-9,5%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>42,96%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 47,28</t>
+          <t>-59,77; 55,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 145,14</t>
+          <t>-17,78; 144,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 297,25</t>
+          <t>19,04; 299,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 263,19</t>
+          <t>3,78; 228,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 23,03</t>
+          <t>-30,35; 142,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 20,03</t>
+          <t>-34,56; 162,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 12,0</t>
+          <t>-32,19; 28,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 94,15</t>
+          <t>-32,19; 26,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,35; 18,34</t>
+          <t>-38,11; 16,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 27,82</t>
+          <t>-1,19; 80,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 46,3</t>
+          <t>-20,03; 57,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 93,12</t>
+          <t>-29,18; 67,8</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-32,41; 22,16</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-23,09; 32,07</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-18,13; 50,25</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 88,22</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-14,72; 53,82</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-17,66; 76,64</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1496,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1218,50 +1506,80 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,62</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-4,37</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,12</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 0,76</t>
+          <t>-19,72; 0,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 3,26</t>
+          <t>-17,34; 3,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 1,34</t>
+          <t>-18,28; 1,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-16,03; 6,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 3,84</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 5,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 7,02</t>
+          <t>-9,99; 3,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-7,82; 6,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 7,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 7,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-12,21; -0,51</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; 2,61</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-8,57; 3,04</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-10,68; 0,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; 2,95</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 2,88</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 4,78</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-71,46%</t>
+          <t>-67,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-42,36%</t>
+          <t>-42,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-60,61%</t>
+          <t>-60,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-12,4%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-26,96%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>-25,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-4,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,97%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-42,67%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-18,74%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-17,95%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-40,21%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-17,76%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-17,54%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-6,07%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,17 +1790,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 63,98</t>
+          <t>-100,0; 56,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-94,77; 167,29</t>
+          <t>-93,0; 164,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 67,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1432,40 +1810,70 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,88; 45,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 63,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 74,17</t>
+          <t>-58,55; 38,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-45,74; 66,58</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-40,46; 82,8</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-52,72; 76,56</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-76,71; -3,48</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-60,62; 36,15</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-56,88; 42,73</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-71,33; 12,99</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-58,89; 46,44</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-58,13; 38,92</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-55,25; 62,24</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,7 +1892,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1494,52 +1902,82 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,14</t>
+          <t>-2,82; 1,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,89</t>
+          <t>-2,72; 1,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,05</t>
+          <t>-1,51; 3,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,46</t>
+          <t>-1,5; 3,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,66</t>
+          <t>2,04; 7,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,83</t>
+          <t>-0,97; 4,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,13</t>
+          <t>-3,73; 1,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,16</t>
+          <t>-3,87; 0,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,2</t>
+          <t>-2,05; 2,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,27</t>
+          <t>-0,4; 4,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,0</t>
+          <t>1,84; 8,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,51</t>
+          <t>0,02; 7,12</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 0,64</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 0,29</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 2,18</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 3,48</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 6,69</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 4,92</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-16,15%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-14,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>77,72%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-11,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>-11,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-13,55%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>22,69%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-11,57%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-12,44%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>46,29%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>21,43%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 30,77</t>
+          <t>-45,72; 34,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 22,89</t>
+          <t>-42,98; 30,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 70,94</t>
+          <t>-25,03; 77,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,03; 158,98</t>
+          <t>-24,42; 79,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 5,68</t>
+          <t>27,99; 155,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 7,58</t>
+          <t>-9,72; 62,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 18,61</t>
+          <t>-27,4; 9,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,44; 55,44</t>
+          <t>-28,13; 6,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 2,32</t>
+          <t>-15,0; 23,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 3,78</t>
+          <t>-3,14; 43,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 24,48</t>
+          <t>11,68; 62,42</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,65; 68,83</t>
+          <t>-0,04; 49,44</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-28,69; 8,07</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-26,73; 4,03</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 27,51</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 42,67</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 70,09</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 42,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
